--- a/Soft X-ray/Four-View/FiberPositionCalubration.xlsx
+++ b/Soft X-ray/Four-View/FiberPositionCalubration.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuleo\Documents\GitHub\test-open\Soft X-ray\Four-View\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AFB526-45C0-4619-86D4-1EB735F58584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384E89DC-02E1-4519-923E-7D46C359128F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11976" yWindow="25812" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35400" yWindow="2415" windowWidth="17280" windowHeight="11085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,34 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
-  <si>
-    <t>実験日</t>
-    <rPh sb="0" eb="2">
-      <t>ジッケン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ビ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>放電番号</t>
-    <rPh sb="0" eb="2">
-      <t>ホウデン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>記入例</t>
-    <rPh sb="0" eb="3">
-      <t>キニュウレイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>0,50</t>
     <phoneticPr fontId="1"/>
@@ -80,6 +53,63 @@
   <si>
     <t>-20,44</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Exp.Date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shot no.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Position1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Position2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Position3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Position4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clim1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clim2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Clim3</t>
+  </si>
+  <si>
+    <t>Clim4</t>
+  </si>
+  <si>
+    <t>0,0.35</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0,0.45</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0,0.15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0,1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0,2</t>
   </si>
 </sst>
 </file>
@@ -405,52 +435,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1">
-        <v>3</v>
-      </c>
-      <c r="F1">
-        <v>4</v>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:10">
       <c r="A3">
         <v>230929</v>
       </c>
@@ -458,16 +509,28 @@
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
